--- a/biology/Botanique/Rosa_×dupontii/Rosa_×dupontii.xlsx
+++ b/biology/Botanique/Rosa_×dupontii/Rosa_×dupontii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97dupontii</t>
+          <t>Rosa_×dupontii</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa ×dupontii est une espèce hybride de plantes de la famille des Rosaceae.
-L’espèce a été décrite par Pierre Alfred Déséglise en 1861[1] et nommée pour rendre hommage au botaniste et rosiériste français André Dupont[3].
+L’espèce a été décrite par Pierre Alfred Déséglise en 1861 et nommée pour rendre hommage au botaniste et rosiériste français André Dupont.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97dupontii</t>
+          <t>Rosa_×dupontii</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Alfred Déséglise décrit Rosa ×dupontii ainsi[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Alfred Déséglise décrit Rosa ×dupontii ainsi :
 « Arbrisseau à rameaux rougeâtres parsemés de rares petits aiguillons sétacés ; pétioles canaliculés en dessus presque inermes, velus, glanduleux ; 3-5 folioles larges, ovales cuspidées, arrondies à la base, fermes, coriaces, glabres, luisantes en dessus, glaucescentes pubescentes en dessous, simplement dentées à dents ciliées, les folioles latérales pétiolées, la terminale un peu en cœur à la base ; stipules étroites à oreillettes divergentes ; pédoncules allongés en corymbe peu fourni, velus, parsemés de petites glandes et munis de deux bractées lancéolées pubescentes ; tube du calice glabre, grêle, oblong ; sépales pinnalifides acuminés, glabres en dessus, tomenteux en dedans, réfléchis plus courts que la corolle ; styles en colonne velue, plus longue que les étamines; corolle à pétales grands obcordés d'un blanc lavé de rose. »
 			Rosa ×dupontii.
 			Photographiée au jardin botanique De Kruidhof (d), à Buitenpost aux Pays-Bas.
